--- a/Excel/login_details.xlsx
+++ b/Excel/login_details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fahad\Website2\Website new\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12b12b08b9581f4a/Desktop/Website_NEW/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D470730-A8CE-472B-AA53-B3ECD96B56C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4D470730-A8CE-472B-AA53-B3ECD96B56C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8E860A8-23DC-4B9C-887A-9FF21A5C06CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -72,10 +72,10 @@
     <t>Project</t>
   </si>
   <si>
-    <t>SOI Assam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOI Tripura </t>
+    <t>SOI ASSAM</t>
+  </si>
+  <si>
+    <t>SOI TRIPURA</t>
   </si>
 </sst>
 </file>
@@ -405,17 +405,17 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E4" activeCellId="1" sqref="E5 E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -449,7 +449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -466,7 +466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -479,11 +479,8 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -495,9 +492,6 @@
       </c>
       <c r="D5" t="s">
         <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/login_details.xlsx
+++ b/Excel/login_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12b12b08b9581f4a/Desktop/Website_NEW/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4D470730-A8CE-472B-AA53-B3ECD96B56C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8E860A8-23DC-4B9C-887A-9FF21A5C06CB}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4D470730-A8CE-472B-AA53-B3ECD96B56C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A92EFD98-FF28-4740-965F-8EE65EC1CC8F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -405,7 +405,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" activeCellId="1" sqref="E5 E4"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,6 +479,9 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -492,6 +495,9 @@
       </c>
       <c r="D5" t="s">
         <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
